--- a/bom.xlsx
+++ b/bom.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flandersmake-my.sharepoint.com/personal/remi_decoster_flandersmake_be/Documents/Documents/GitHub/PCBs/VFD Display/vfd_display/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remi.decoster\OneDrive - Flanders Make vzw\Documents\GitHub\PCBs\VFD Display\vfd_display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{601A776A-A20F-4383-B944-F08A41546506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15D69AB5-C445-4C5C-BDFB-2D3F587097DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F209F7-D47D-42D4-9572-D83BCBE1B88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="8820" windowHeight="15585" xr2:uid="{44DF46BD-474F-4317-A2B4-97EA2D230219}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{44DF46BD-474F-4317-A2B4-97EA2D230219}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Oud" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="192">
   <si>
     <t>Item</t>
   </si>
@@ -333,6 +334,285 @@
   </si>
   <si>
     <t>MMSZ5222BT1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>DigiKey</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Supply Voltage</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>1276-1096-1-ND</t>
+  </si>
+  <si>
+    <t>footprint 0805</t>
+  </si>
+  <si>
+    <t>Capacitor 100nF</t>
+  </si>
+  <si>
+    <t>1276-1003-1-ND</t>
+  </si>
+  <si>
+    <t>C5, C3</t>
+  </si>
+  <si>
+    <t>Capacitor 22uF</t>
+  </si>
+  <si>
+    <t>C6, C7</t>
+  </si>
+  <si>
+    <t>1276-6526-1-ND</t>
+  </si>
+  <si>
+    <t>Resistor 31k6</t>
+  </si>
+  <si>
+    <t>Regulator AP62250</t>
+  </si>
+  <si>
+    <t>311-31.6KCRCT-ND</t>
+  </si>
+  <si>
+    <t>311-10.0KCRCT-ND</t>
+  </si>
+  <si>
+    <t>31-AP62250WU-7CT-ND</t>
+  </si>
+  <si>
+    <t>TSOT-26</t>
+  </si>
+  <si>
+    <t>732-9690-1-ND</t>
+  </si>
+  <si>
+    <t>footprint 1008</t>
+  </si>
+  <si>
+    <t>Filament Driver</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C22, C20</t>
+  </si>
+  <si>
+    <t>C23, C24</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>R21, R20</t>
+  </si>
+  <si>
+    <t>Fused Input</t>
+  </si>
+  <si>
+    <t>Barrel Jack</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>3A Fuse</t>
+  </si>
+  <si>
+    <t>Anode Driver</t>
+  </si>
+  <si>
+    <t>E-Capacitor 100uF</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>311-28.7KCRCT-ND</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>13-CC0805JRNPOBBN390CT-ND</t>
+  </si>
+  <si>
+    <t>HV, footprint 0805</t>
+  </si>
+  <si>
+    <t>Capacitor 330pF</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>311-3287-1-ND</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>311-340KCRCT-ND</t>
+  </si>
+  <si>
+    <t>Resistor 100R</t>
+  </si>
+  <si>
+    <t>311-100CRCT-ND</t>
+  </si>
+  <si>
+    <t>Resistor 0.1R</t>
+  </si>
+  <si>
+    <t>311-0.1LUCT-ND</t>
+  </si>
+  <si>
+    <t>Resistor 590k</t>
+  </si>
+  <si>
+    <t>311-590KCRCT-ND</t>
+  </si>
+  <si>
+    <t>Capacitor 10pF</t>
+  </si>
+  <si>
+    <t>311-4254-1-ND</t>
+  </si>
+  <si>
+    <t>Regulator LM3478</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>Diode SK220A</t>
+  </si>
+  <si>
+    <t>E-Capacitor 47uF</t>
+  </si>
+  <si>
+    <t>C13, C14, C15</t>
+  </si>
+  <si>
+    <t>399-14797-1-ND</t>
+  </si>
+  <si>
+    <t>HV</t>
+  </si>
+  <si>
+    <t>Grid Driver</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>Resistor 220k</t>
+  </si>
+  <si>
+    <t>Resistor 5K6</t>
+  </si>
+  <si>
+    <t>Resistor 56R</t>
+  </si>
+  <si>
+    <t>Regulator</t>
+  </si>
+  <si>
+    <t>1276-1066-1-ND</t>
+  </si>
+  <si>
+    <t>311-220KARCT-ND</t>
+  </si>
+  <si>
+    <t>311-5.6KARCT-ND</t>
+  </si>
+  <si>
+    <t>311-56ARCT-ND</t>
+  </si>
+  <si>
+    <t>footprint 0806</t>
+  </si>
+  <si>
+    <t>footprint 0807</t>
+  </si>
+  <si>
+    <t>footprint 0808</t>
+  </si>
+  <si>
+    <t>952-3265-ND</t>
+  </si>
+  <si>
+    <t>Male connector</t>
+  </si>
+  <si>
+    <t>VFD Display</t>
+  </si>
+  <si>
+    <t>R15, R16, R17, R18</t>
+  </si>
+  <si>
+    <t>Resistor 10R</t>
+  </si>
+  <si>
+    <t>R9, R10</t>
+  </si>
+  <si>
+    <t>C17, C18</t>
+  </si>
+  <si>
+    <t>C16, C19</t>
+  </si>
+  <si>
+    <t>Diode BZT52B3V3</t>
+  </si>
+  <si>
+    <t>D3, D4, D5, D6</t>
+  </si>
+  <si>
+    <t>Zener Diode</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>311-200CRCT-ND</t>
+  </si>
+  <si>
+    <t>311-100KCRCT-ND</t>
+  </si>
+  <si>
+    <t>13-AC0805FR-7W10RLCT-ND</t>
+  </si>
+  <si>
+    <t>1276-6840-1-ND</t>
+  </si>
+  <si>
+    <t>Barrel Plug</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>CP3-1000-ND</t>
   </si>
 </sst>
 </file>
@@ -342,7 +622,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +642,12 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -411,7 +697,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -419,11 +705,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -441,11 +742,32 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -459,9 +781,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -499,7 +821,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -605,7 +927,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -747,7 +1069,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -757,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73E4D7A-0AC5-4626-AF3B-D215BB014F33}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,4 +1858,1202 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D71B74-725B-468F-B080-39BB5A682950}">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <f>E2*F2</f>
+        <v>0.09</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <f>E3*F3</f>
+        <v>0.18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <f>E4*F4</f>
+        <v>0.6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G8" si="0">E5*F5</f>
+        <v>0.09</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <f>E10*F10</f>
+        <v>0.09</v>
+      </c>
+      <c r="H10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <f>E11*F11</f>
+        <v>0.18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <f>E12*F12</f>
+        <v>0.6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" ref="G13:G53" si="1">E13*F13</f>
+        <v>0.09</v>
+      </c>
+      <c r="H13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="H23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="H24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="H28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="H29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+      <c r="H30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="H31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="H32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2.41</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="1"/>
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2.36</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="1"/>
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2.69</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="1"/>
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="1"/>
+        <v>2.04</v>
+      </c>
+      <c r="H37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="H40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="H41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="H42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="1"/>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="1"/>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="H49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="H51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="20">
+        <f>SUM(G2:G53)</f>
+        <v>23.149999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="A39:A43"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="HV">
+      <formula>NOT(ISERROR(SEARCH("HV",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/bom.xlsx
+++ b/bom.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remi.decoster\OneDrive - Flanders Make vzw\Documents\GitHub\PCBs\VFD Display\vfd_display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F209F7-D47D-42D4-9572-D83BCBE1B88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552454A1-9CE6-4600-A364-8B890225D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{44DF46BD-474F-4317-A2B4-97EA2D230219}"/>
+    <workbookView xWindow="945" yWindow="15" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{44DF46BD-474F-4317-A2B4-97EA2D230219}"/>
   </bookViews>
   <sheets>
-    <sheet name="Oud" sheetId="1" r:id="rId1"/>
-    <sheet name="BOM" sheetId="2" r:id="rId2"/>
+    <sheet name="BOM" sheetId="2" r:id="rId1"/>
+    <sheet name="abridged" sheetId="4" r:id="rId2"/>
+    <sheet name="obsolete" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="190">
   <si>
     <t>Item</t>
   </si>
@@ -360,9 +361,6 @@
     <t>Capacitor 100nF</t>
   </si>
   <si>
-    <t>1276-1003-1-ND</t>
-  </si>
-  <si>
     <t>C5, C3</t>
   </si>
   <si>
@@ -576,12 +574,6 @@
     <t>R9, R10</t>
   </si>
   <si>
-    <t>C17, C18</t>
-  </si>
-  <si>
-    <t>C16, C19</t>
-  </si>
-  <si>
     <t>Diode BZT52B3V3</t>
   </si>
   <si>
@@ -613,6 +605,9 @@
   </si>
   <si>
     <t>CP3-1000-ND</t>
+  </si>
+  <si>
+    <t>C16, C19, C17, C18</t>
   </si>
 </sst>
 </file>
@@ -724,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -745,13 +740,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,801 +1074,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73E4D7A-0AC5-4626-AF3B-D215BB014F33}">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D71B74-725B-468F-B080-39BB5A682950}">
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
-        <f>D2*E2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F12" si="0">D3*E3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.82</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
-        <f>D14*E14</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7">
-        <f t="shared" ref="F15:F28" si="1">D15*E15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2.41</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="1"/>
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2.37</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="1"/>
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2.69</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" si="1"/>
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" si="1"/>
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1.02</v>
-      </c>
-      <c r="E26" s="6">
-        <v>3</v>
-      </c>
-      <c r="F26" s="7">
-        <f t="shared" si="1"/>
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9">
-        <f>E30*D30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="9">
-        <v>1.18</v>
-      </c>
-      <c r="E31" s="8">
-        <v>1</v>
-      </c>
-      <c r="F31" s="9">
-        <f>E31*D31</f>
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="9">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E33" s="8">
-        <v>1</v>
-      </c>
-      <c r="F33" s="9">
-        <f>D33*E33</f>
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="9">
-        <v>0.46</v>
-      </c>
-      <c r="E34" s="8">
-        <v>1</v>
-      </c>
-      <c r="F34" s="9">
-        <f>D34*E34</f>
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="13">
-        <v>0.72</v>
-      </c>
-      <c r="E36" s="12">
-        <v>2</v>
-      </c>
-      <c r="F36" s="13">
-        <f>D36*E36</f>
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="10">
-        <v>2</v>
-      </c>
-      <c r="F38" s="11">
-        <f>D38*E38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="11">
-        <v>1.54</v>
-      </c>
-      <c r="E39" s="10">
-        <v>1</v>
-      </c>
-      <c r="F39" s="11">
-        <f t="shared" ref="F39:F42" si="2">D39*E39</f>
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="10">
-        <v>1</v>
-      </c>
-      <c r="F40" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="10">
-        <v>1</v>
-      </c>
-      <c r="F41" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="10">
-        <v>1</v>
-      </c>
-      <c r="F42" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="14">
-        <v>4</v>
-      </c>
-      <c r="F44" s="15">
-        <f>D44*E44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="15">
-        <v>0.19</v>
-      </c>
-      <c r="E45" s="14">
-        <v>4</v>
-      </c>
-      <c r="F45" s="15">
-        <f t="shared" ref="F45:F48" si="3">D45*E45</f>
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="14">
-        <v>2</v>
-      </c>
-      <c r="F46" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="14">
-        <v>2</v>
-      </c>
-      <c r="F47" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="15">
-        <v>0.21</v>
-      </c>
-      <c r="E48" s="14">
-        <v>1</v>
-      </c>
-      <c r="F48" s="15">
-        <f t="shared" si="3"/>
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F50" s="16">
-        <f>SUM(F2:F48)</f>
-        <v>20.880000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D71B74-725B-468F-B080-39BB5A682950}">
-  <dimension ref="A1:H55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
@@ -1905,7 +1118,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>102</v>
       </c>
       <c r="B2" t="s">
@@ -1932,15 +1145,15 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="E3" s="5">
         <v>0.09</v>
@@ -1957,15 +1170,15 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
         <v>109</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>110</v>
-      </c>
-      <c r="D4" t="s">
-        <v>111</v>
       </c>
       <c r="E4" s="5">
         <v>0.3</v>
@@ -1982,15 +1195,15 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" s="5">
         <v>0.09</v>
@@ -2007,7 +1220,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -2015,7 +1228,7 @@
         <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="5">
         <v>0.09</v>
@@ -2032,7 +1245,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -2040,7 +1253,7 @@
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="5">
         <v>0.49</v>
@@ -2053,19 +1266,19 @@
         <v>0.49</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="5">
         <v>0.3</v>
@@ -2078,18 +1291,18 @@
         <v>0.3</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>120</v>
+      <c r="A10" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
         <v>104</v>
@@ -2109,15 +1322,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="E11" s="5">
         <v>0.09</v>
@@ -2134,15 +1347,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="5">
         <v>0.3</v>
@@ -2159,15 +1372,15 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="5">
         <v>0.09</v>
@@ -2176,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" ref="G13:G53" si="1">E13*F13</f>
+        <f t="shared" ref="G13:G52" si="1">E13*F13</f>
         <v>0.09</v>
       </c>
       <c r="H13" t="s">
@@ -2184,15 +1397,15 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="5">
         <v>0.09</v>
@@ -2209,15 +1422,15 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="5">
         <v>0.49</v>
@@ -2230,19 +1443,19 @@
         <v>0.49</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="5">
         <v>0.3</v>
@@ -2255,21 +1468,21 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s">
         <v>128</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>129</v>
-      </c>
-      <c r="C18" t="s">
-        <v>130</v>
       </c>
       <c r="D18" t="s">
         <v>69</v>
@@ -2286,15 +1499,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="21"/>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E19" s="5">
         <v>1.1299999999999999</v>
@@ -2308,9 +1521,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="21"/>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
         <v>71</v>
@@ -2336,14 +1549,14 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
         <v>132</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>133</v>
-      </c>
-      <c r="C22" t="s">
-        <v>134</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
@@ -2360,15 +1573,15 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="E23" s="5">
         <v>0.09</v>
@@ -2385,7 +1598,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="19"/>
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -2393,7 +1606,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E24" s="5">
         <v>0.09</v>
@@ -2410,15 +1623,15 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" t="s">
         <v>33</v>
       </c>
       <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" t="s">
         <v>137</v>
-      </c>
-      <c r="D25" t="s">
-        <v>138</v>
       </c>
       <c r="E25" s="5">
         <v>0.11</v>
@@ -2431,19 +1644,19 @@
         <v>0.11</v>
       </c>
       <c r="H25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>140</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>141</v>
-      </c>
-      <c r="D26" t="s">
-        <v>142</v>
       </c>
       <c r="E26" s="5">
         <v>0.13</v>
@@ -2456,19 +1669,19 @@
         <v>0.13</v>
       </c>
       <c r="H26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="19"/>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27" s="5">
         <v>0.18</v>
@@ -2481,19 +1694,19 @@
         <v>0.18</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="19"/>
       <c r="B28" t="s">
         <v>35</v>
       </c>
       <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
         <v>143</v>
-      </c>
-      <c r="D28" t="s">
-        <v>144</v>
       </c>
       <c r="E28" s="5">
         <v>0.09</v>
@@ -2510,15 +1723,15 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="19"/>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
         <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E29" s="5">
         <v>0.09</v>
@@ -2535,15 +1748,15 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="19"/>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30" s="5">
         <v>0.39</v>
@@ -2560,15 +1773,15 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
+      <c r="A31" s="19"/>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" s="5">
         <v>0.09</v>
@@ -2585,7 +1798,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+      <c r="A32" s="19"/>
       <c r="B32" t="s">
         <v>12</v>
       </c>
@@ -2593,7 +1806,7 @@
         <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E32" s="5">
         <v>0.09</v>
@@ -2610,12 +1823,12 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="19"/>
       <c r="B33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" t="s">
         <v>153</v>
-      </c>
-      <c r="C33" t="s">
-        <v>154</v>
       </c>
       <c r="D33" t="s">
         <v>40</v>
@@ -2632,7 +1845,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+      <c r="A34" s="19"/>
       <c r="B34" t="s">
         <v>42</v>
       </c>
@@ -2654,9 +1867,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+      <c r="A35" s="19"/>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
         <v>51</v>
@@ -2676,7 +1889,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="A36" s="19"/>
       <c r="B36" t="s">
         <v>44</v>
       </c>
@@ -2698,15 +1911,15 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="19"/>
       <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
         <v>156</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>157</v>
-      </c>
-      <c r="D37" t="s">
-        <v>158</v>
       </c>
       <c r="E37" s="5">
         <v>0.68</v>
@@ -2719,24 +1932,24 @@
         <v>2.04</v>
       </c>
       <c r="H37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>160</v>
+      <c r="A39" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E39" s="5">
         <v>0.09</v>
@@ -2753,15 +1966,15 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="20"/>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E40" s="5">
         <v>0.09</v>
@@ -2774,19 +1987,19 @@
         <v>0.09</v>
       </c>
       <c r="H40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="20"/>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
         <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E41" s="5">
         <v>0.09</v>
@@ -2799,19 +2012,19 @@
         <v>0.09</v>
       </c>
       <c r="H41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="A42" s="20"/>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E42" s="5">
         <v>0.09</v>
@@ -2824,13 +2037,13 @@
         <v>0.09</v>
       </c>
       <c r="H42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
         <v>39</v>
@@ -2853,17 +2066,17 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
         <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E45" s="5">
         <v>0.61</v>
@@ -2880,17 +2093,17 @@
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>175</v>
+      <c r="A47" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="B47" t="s">
         <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E47" s="5">
         <v>0.09</v>
@@ -2904,6 +2117,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
       <c r="B48" t="s">
         <v>13</v>
       </c>
@@ -2911,7 +2125,7 @@
         <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E48" s="5">
         <v>0.09</v>
@@ -2924,15 +2138,16 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
       <c r="B49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" t="s">
         <v>177</v>
       </c>
-      <c r="C49" t="s">
-        <v>178</v>
-      </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E49" s="5">
         <v>0.09</v>
@@ -2945,102 +2160,85 @@
         <v>0.18</v>
       </c>
       <c r="H49" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
       <c r="B50" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="E50" s="5">
         <v>0.09</v>
       </c>
       <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
-        <v>95</v>
+        <v>4</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" t="s">
+        <v>178</v>
       </c>
       <c r="C51" t="s">
         <v>179</v>
       </c>
       <c r="D51" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="E51" s="5">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G51" s="5">
         <f t="shared" si="1"/>
-        <v>0.18</v>
-      </c>
-      <c r="H51" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
       <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
         <v>181</v>
       </c>
-      <c r="C52" t="s">
-        <v>182</v>
-      </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E52" s="5">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G52" s="5">
         <f t="shared" si="1"/>
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>183</v>
-      </c>
-      <c r="C53" t="s">
-        <v>184</v>
-      </c>
-      <c r="D53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="5">
         <v>0.21</v>
       </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" s="5">
-        <f t="shared" si="1"/>
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G55" s="20">
-        <f>SUM(G2:G53)</f>
-        <v>23.149999999999995</v>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="18">
+        <f>SUM(G2:G52)</f>
+        <v>23.329999999999995</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A47:A52"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A18:A20"/>
@@ -3056,4 +2254,1775 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805610DA-93A2-4A83-B83D-161B170A2F96}">
+  <dimension ref="A1:F46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2">
+        <v>0.09</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>D2*E2</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3">
+        <v>0.09</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>D3*E3</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>D4*E4</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5">
+        <v>0.09</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F8" si="0">D5*E5</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6">
+        <v>0.09</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7">
+        <v>0.49</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9">
+        <v>0.09</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>D9*E9</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10">
+        <v>0.09</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f>D10*E10</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11">
+        <v>0.3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f>D11*E11</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12">
+        <v>0.09</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F46" si="1">D12*E12</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13">
+        <v>0.09</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14">
+        <v>0.49</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15">
+        <v>0.3</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>0.3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20">
+        <v>0.09</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21">
+        <v>0.09</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22">
+        <v>0.11</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23">
+        <v>0.13</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24">
+        <v>0.18</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25">
+        <v>0.09</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26">
+        <v>0.09</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27">
+        <v>0.39</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28">
+        <v>0.09</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29">
+        <v>0.09</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>2.41</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>2.36</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32">
+        <v>0.41</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33">
+        <v>2.69</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34">
+        <v>0.68</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35">
+        <v>0.09</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36">
+        <v>0.09</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37">
+        <v>0.09</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38">
+        <v>0.09</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39">
+        <v>1.54</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40">
+        <v>0.61</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41">
+        <v>0.09</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42">
+        <v>0.09</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43">
+        <v>0.09</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44">
+        <v>0.09</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45">
+        <v>0.19</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46">
+        <v>0.21</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73E4D7A-0AC5-4626-AF3B-D215BB014F33}">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <f>D2*E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F12" si="0">D3*E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.82</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <f>D14*E14</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7">
+        <f t="shared" ref="F15:F28" si="1">D15*E15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2.41</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="1"/>
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2.37</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="1"/>
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2.69</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="1"/>
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="E26" s="6">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="1"/>
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9">
+        <f>E30*D30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1.18</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9">
+        <f>E31*D31</f>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <f>D33*E33</f>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9">
+        <f>D34*E34</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="E36" s="12">
+        <v>2</v>
+      </c>
+      <c r="F36" s="13">
+        <f>D36*E36</f>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="10">
+        <v>2</v>
+      </c>
+      <c r="F38" s="11">
+        <f>D38*E38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="11">
+        <v>1.54</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" ref="F39:F42" si="2">D39*E39</f>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10">
+        <v>1</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="14">
+        <v>4</v>
+      </c>
+      <c r="F44" s="15">
+        <f>D44*E44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="15">
+        <v>0.19</v>
+      </c>
+      <c r="E45" s="14">
+        <v>4</v>
+      </c>
+      <c r="F45" s="15">
+        <f t="shared" ref="F45:F48" si="3">D45*E45</f>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="14">
+        <v>2</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="14">
+        <v>2</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="15">
+        <v>0.21</v>
+      </c>
+      <c r="E48" s="14">
+        <v>1</v>
+      </c>
+      <c r="F48" s="15">
+        <f t="shared" si="3"/>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F50" s="16">
+        <f>SUM(F2:F48)</f>
+        <v>20.880000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>